--- a/biology/Botanique/Colmar_de_Chin/Colmar_de_Chin.xlsx
+++ b/biology/Botanique/Colmar_de_Chin/Colmar_de_Chin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Colmart de Chin est une variété de poire.
 </t>
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Obtenue en 1835, par Norbert Bouzin, doyen de Ramegnies-Chin près de Tournai, Belgique, Hainaut, elle est dégustée avec Van Mons le 16 décembre 1838[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Obtenue en 1835, par Norbert Bouzin, doyen de Ramegnies-Chin près de Tournai, Belgique, Hainaut, elle est dégustée avec Van Mons le 16 décembre 1838.
 </t>
         </is>
       </c>
@@ -542,18 +556,14 @@
           <t>Arbre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Vigueur fertilité : assez vigoureux, pyramidal, à rameaux clairs, élancés.
 Scions : droits, flexueux, à peau rousse, cendrée.
 Bourgeons : gros, velus, ovales, étalés, séparés du scion.
-Boutons à fruits : gros, ovales, velus[1].
-Feuilles
-Ovales, lancéolées, aplaties, crénelées, longuement pétiolées[1]. 
-Fleurs
-Garnies de pétales ovales, les fleurs sont tout à fait ordinaires[1].
-Fruit
-La peau du fruit est verte, jaunissant à la maturité, picotée et un peu lavée de roux[1].</t>
+Boutons à fruits : gros, ovales, velus.</t>
         </is>
       </c>
     </row>
@@ -578,21 +588,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Productivité</t>
+          <t>Arbre</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Forme et calibre
-Pédoncule robuste, assez long, terminal, parfois entouré d'un collier.
-Calice affleurant, ouvert avec des sépales dressés.
-Chair
-Fondante, très-juteuse, sucrée, la chair se révèle très agréable.
-Date de récolte
-Maturité : décembre.
-Époque naturelle de consommation
-Décembre.
-Conservation</t>
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ovales, lancéolées, aplaties, crénelées, longuement pétiolées. 
+</t>
         </is>
       </c>
     </row>
@@ -617,10 +625,231 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Garnies de pétales ovales, les fleurs sont tout à fait ordinaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Colmar_de_Chin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colmar_de_Chin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La peau du fruit est verte, jaunissant à la maturité, picotée et un peu lavée de roux.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Colmar_de_Chin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colmar_de_Chin</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Productivité</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Forme et calibre</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Pédoncule robuste, assez long, terminal, parfois entouré d'un collier.
+Calice affleurant, ouvert avec des sépales dressés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Colmar_de_Chin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colmar_de_Chin</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Productivité</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Chair</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Fondante, très-juteuse, sucrée, la chair se révèle très agréable.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Colmar_de_Chin</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colmar_de_Chin</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Productivité</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Date de récolte</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Maturité : décembre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Colmar_de_Chin</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colmar_de_Chin</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Productivité</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Époque naturelle de consommation</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Décembre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Colmar_de_Chin</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colmar_de_Chin</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Observations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Culture en pyramide et espalier.
 </t>
